--- a/WebContent/resources/files/Archivo Plano Usuarios por Centros de Costo.xlsx
+++ b/WebContent/resources/files/Archivo Plano Usuarios por Centros de Costo.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
-  <si>
-    <t>Centro Costos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Responsable</t>
   </si>
@@ -277,118 +274,7 @@
     <t>1000110150</t>
   </si>
   <si>
-    <t>1000210110</t>
-  </si>
-  <si>
-    <t>hernan.roaf</t>
-  </si>
-  <si>
-    <t>1000210130</t>
-  </si>
-  <si>
-    <t>1000211110</t>
-  </si>
-  <si>
-    <t>1000211140</t>
-  </si>
-  <si>
-    <t>1000211170</t>
-  </si>
-  <si>
-    <t>1000212110</t>
-  </si>
-  <si>
-    <t>1000310110</t>
-  </si>
-  <si>
-    <t>1000310120</t>
-  </si>
-  <si>
-    <t>1000310130</t>
-  </si>
-  <si>
-    <t>1000310260</t>
-  </si>
-  <si>
-    <t>1000311120</t>
-  </si>
-  <si>
-    <t>1000311130</t>
-  </si>
-  <si>
-    <t>1000312100</t>
-  </si>
-  <si>
-    <t>1000330100</t>
-  </si>
-  <si>
-    <t>1000410110</t>
-  </si>
-  <si>
-    <t>1000410120</t>
-  </si>
-  <si>
-    <t>1000411110</t>
-  </si>
-  <si>
-    <t>1000411120</t>
-  </si>
-  <si>
-    <t>1000412110</t>
-  </si>
-  <si>
-    <t>1000412120</t>
-  </si>
-  <si>
-    <t>1000412130</t>
-  </si>
-  <si>
-    <t>1000412140</t>
-  </si>
-  <si>
-    <t>1000510110</t>
-  </si>
-  <si>
-    <t>1000510130</t>
-  </si>
-  <si>
-    <t>1000510140</t>
-  </si>
-  <si>
-    <t>1000510160</t>
-  </si>
-  <si>
-    <t>1000511110</t>
-  </si>
-  <si>
-    <t>1000511120</t>
-  </si>
-  <si>
-    <t>1000610110</t>
-  </si>
-  <si>
-    <t>1000610120</t>
-  </si>
-  <si>
-    <t>1000710140</t>
-  </si>
-  <si>
-    <t>1000710150</t>
-  </si>
-  <si>
-    <t>1000810110</t>
-  </si>
-  <si>
-    <t>1000811170</t>
-  </si>
-  <si>
-    <t>1000811180</t>
-  </si>
-  <si>
-    <t>1000812110</t>
-  </si>
-  <si>
-    <t>1000830100</t>
+    <t>Centro Costo</t>
   </si>
 </sst>
 </file>
@@ -412,18 +298,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -444,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -464,29 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -783,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,1165 +662,647 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
       <c r="C44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
